--- a/PA2/Project2Analysis.xlsx
+++ b/PA2/Project2Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10890" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10890" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sequential" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Size</t>
   </si>
@@ -95,13 +95,19 @@
   <si>
     <t>Dynamic</t>
   </si>
+  <si>
+    <t>efficiency for 32000</t>
+  </si>
+  <si>
+    <t>efficency for 500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,12 +152,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1256,7 @@
                   <c:v>2.3395956666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2447116666666673</c:v>
+                  <c:v>9.1200906666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.989424</c:v>
@@ -2208,25 +2221,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.487725E-2</c:v>
+                  <c:v>5.9836333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16982249999999999</c:v>
+                  <c:v>0.22642999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63683900000000004</c:v>
+                  <c:v>0.84911866666666658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6019285000000001</c:v>
+                  <c:v>3.4692379999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.272029249999999</c:v>
+                  <c:v>13.696039000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.045760000000001</c:v>
+                  <c:v>54.727679999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162.077268</c:v>
+                  <c:v>216.103024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,25 +2309,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7938249999999999E-2</c:v>
+                  <c:v>2.3917666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.896875E-2</c:v>
+                  <c:v>7.8625E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22012424999999999</c:v>
+                  <c:v>0.29349900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87197374999999999</c:v>
+                  <c:v>1.1626316666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43115675</c:v>
+                  <c:v>4.5748756666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.700756999999999</c:v>
+                  <c:v>18.267676000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.472636000000001</c:v>
+                  <c:v>73.963514666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,25 +2397,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.1799999999999998E-3</c:v>
+                  <c:v>1.0906666666666665E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3899750000000001E-2</c:v>
+                  <c:v>3.186633333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2905749999999995E-2</c:v>
+                  <c:v>0.12387433333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37449549999999998</c:v>
+                  <c:v>0.49932733333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.44925975</c:v>
+                  <c:v>1.9323463333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7911562500000002</c:v>
+                  <c:v>7.721541666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.770360499999999</c:v>
+                  <c:v>31.693814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,25 +2485,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.558675E-2</c:v>
+                  <c:v>2.0782333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1278749999999999E-2</c:v>
+                  <c:v>2.8371666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5973250000000002E-2</c:v>
+                  <c:v>7.4631000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20277775000000001</c:v>
+                  <c:v>0.27037033333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76762050000000004</c:v>
+                  <c:v>1.0234939999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9034270000000002</c:v>
+                  <c:v>3.8712360000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.7468495</c:v>
+                  <c:v>15.662466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,7 +3229,7 @@
                   <c:v>0.72550406501864217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2710866744536409</c:v>
+                  <c:v>0.73561249683482688</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71662566756018331</c:v>
@@ -4189,25 +4202,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.62704748322739623</c:v>
+                  <c:v>0.47028561242054717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64094373046367048</c:v>
+                  <c:v>0.4807077978477528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64503430223337455</c:v>
+                  <c:v>0.48377572667503094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65235696010350275</c:v>
+                  <c:v>0.48926772007762703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65311853221861371</c:v>
+                  <c:v>0.48983889916396023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64580533206515522</c:v>
+                  <c:v>0.48435399904886645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65426499332816168</c:v>
+                  <c:v>0.49069874499612126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,25 +4290,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.78436209403555723</c:v>
+                  <c:v>0.5882715705266679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92291821232997706</c:v>
+                  <c:v>0.69218865924748285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93307075435805009</c:v>
+                  <c:v>0.69980306576853757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97330118404749388</c:v>
+                  <c:v>0.7299758880356203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97763715788657379</c:v>
+                  <c:v>0.73322786841493026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96737613354746266</c:v>
+                  <c:v>0.72553210016059699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95579992508979261</c:v>
+                  <c:v>0.71684994381734446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4365,25 +4378,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86002954360228201</c:v>
+                  <c:v>0.64502215770171156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1385753686405367</c:v>
+                  <c:v>0.8539315264804026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1053756091522859</c:v>
+                  <c:v>0.82903170686421457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1331151954206837</c:v>
+                  <c:v>0.84983639656551291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1572895519016979</c:v>
+                  <c:v>0.86796716392627349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1443125311403344</c:v>
+                  <c:v>0.85823439835525073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1152700299461873</c:v>
+                  <c:v>0.83645252245964052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,25 +4466,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.22567378275351394</c:v>
+                  <c:v>0.16925533706513546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63940942646223742</c:v>
+                  <c:v>0.47955706984667801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9173645446708919</c:v>
+                  <c:v>0.6880234085031689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0463340816896003</c:v>
+                  <c:v>0.78475056126720022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0924754919043114</c:v>
+                  <c:v>0.81935661892823342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1412190949981982</c:v>
+                  <c:v>0.85591432124864864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1284034356048687</c:v>
+                  <c:v>0.8463025767036515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5173,7 +5186,7 @@
                   <c:v>1.4510081300372843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5421733489072817</c:v>
+                  <c:v>1.4712249936696538</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.4332513351203666</c:v>
@@ -6119,25 +6132,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2540949664547925</c:v>
+                  <c:v>0.94057122484109434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.281887460927341</c:v>
+                  <c:v>0.96141559569550561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2900686044667491</c:v>
+                  <c:v>0.96755145335006187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3047139202070055</c:v>
+                  <c:v>0.97853544015525407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3062370644372274</c:v>
+                  <c:v>0.97967779832792046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2916106641303104</c:v>
+                  <c:v>0.96870799809773289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3085299866563234</c:v>
+                  <c:v>0.98139748999224252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,25 +6220,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.1374483761422289</c:v>
+                  <c:v>2.3530862821066716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6916728493199082</c:v>
+                  <c:v>2.7687546369899314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7322830174322004</c:v>
+                  <c:v>2.7992122630741503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8932047361899755</c:v>
+                  <c:v>2.9199035521424812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9105486315462952</c:v>
+                  <c:v>2.932911473659721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8695045341898506</c:v>
+                  <c:v>2.902128400642388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8231997003591704</c:v>
+                  <c:v>2.8673997752693778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,25 +6308,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.8802363488182561</c:v>
+                  <c:v>5.1601772616136925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1086029491242932</c:v>
+                  <c:v>6.8314522118432208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8430048732182875</c:v>
+                  <c:v>6.6322536549137165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0649215633654698</c:v>
+                  <c:v>6.7986911725241033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2583164152135833</c:v>
+                  <c:v>6.9437373114101879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.154500249122675</c:v>
+                  <c:v>6.8658751868420058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9221602395694983</c:v>
+                  <c:v>6.6916201796771242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,25 +6396,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.610780524056223</c:v>
+                  <c:v>2.7080853930421673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.230550823395799</c:v>
+                  <c:v>7.6729131175468481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.67783271473427</c:v>
+                  <c:v>11.008374536050702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.741345307033605</c:v>
+                  <c:v>12.556008980275204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.479607870468982</c:v>
+                  <c:v>13.109705902851735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.259505519971171</c:v>
+                  <c:v>13.694629139978378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.054454969677899</c:v>
+                  <c:v>13.540841227258424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7092,7 +7105,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Extra calculation'!$D$62</c:f>
+              <c:f>'Extra calculation'!$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7141,16 +7154,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62704748322739623</c:v>
+                  <c:v>0.47028561242054717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78436209403555723</c:v>
+                  <c:v>0.5882715705266679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86002954360228201</c:v>
+                  <c:v>0.64502215770171156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22567378275351394</c:v>
+                  <c:v>0.16925533706513546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,7 +7585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Extra calculation'!$D$62</c:f>
+              <c:f>'Extra calculation'!$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7621,16 +7634,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.65426499332816168</c:v>
+                  <c:v>0.49069874499612126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95579992508979261</c:v>
+                  <c:v>0.71684994381734446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1152700299461873</c:v>
+                  <c:v>0.83645252245964052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1284034356048687</c:v>
+                  <c:v>0.8463025767036515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7945,26 +7958,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -8081,7 +8074,7 @@
                   <c:v>2.3395956666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2447116666666673</c:v>
+                  <c:v>9.1200906666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.989424</c:v>
@@ -8603,26 +8596,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -8731,26 +8704,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8815,8 +8768,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Nodes</a:t>
+                  <a:t>tasks</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8836,26 +8790,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -9020,26 +8954,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -9156,7 +9070,7 @@
                   <c:v>0.72550406501864217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2710866744536409</c:v>
+                  <c:v>0.73561249683482688</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71662566756018331</c:v>
@@ -9637,6 +9551,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size(pixel x pixel)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9645,26 +9584,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -9732,6 +9651,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
@@ -9748,26 +9692,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9812,6 +9736,40 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.69608250580415854"/>
+              <c:y val="0.71230207511223742"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9820,26 +9778,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -9971,6 +9909,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Efficency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9979,26 +9942,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -10102,25 +10045,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.62704748322739623</c:v>
+                  <c:v>0.47028561242054717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64094373046367048</c:v>
+                  <c:v>0.4807077978477528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64503430223337455</c:v>
+                  <c:v>0.48377572667503094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65235696010350275</c:v>
+                  <c:v>0.48926772007762703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65311853221861371</c:v>
+                  <c:v>0.48983889916396023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64580533206515522</c:v>
+                  <c:v>0.48435399904886645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65426499332816168</c:v>
+                  <c:v>0.49069874499612126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10190,25 +10133,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.78436209403555723</c:v>
+                  <c:v>0.5882715705266679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92291821232997706</c:v>
+                  <c:v>0.69218865924748285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93307075435805009</c:v>
+                  <c:v>0.69980306576853757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97330118404749388</c:v>
+                  <c:v>0.7299758880356203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97763715788657379</c:v>
+                  <c:v>0.73322786841493026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96737613354746266</c:v>
+                  <c:v>0.72553210016059699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95579992508979261</c:v>
+                  <c:v>0.71684994381734446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10278,25 +10221,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86002954360228201</c:v>
+                  <c:v>0.64502215770171156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1385753686405367</c:v>
+                  <c:v>0.8539315264804026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1053756091522859</c:v>
+                  <c:v>0.82903170686421457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1331151954206837</c:v>
+                  <c:v>0.84983639656551291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1572895519016979</c:v>
+                  <c:v>0.86796716392627349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1443125311403344</c:v>
+                  <c:v>0.85823439835525073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1152700299461873</c:v>
+                  <c:v>0.83645252245964052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10366,25 +10309,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.22567378275351394</c:v>
+                  <c:v>0.16925533706513546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63940942646223742</c:v>
+                  <c:v>0.47955706984667801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9173645446708919</c:v>
+                  <c:v>0.6880234085031689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0463340816896003</c:v>
+                  <c:v>0.78475056126720022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0924754919043114</c:v>
+                  <c:v>0.81935661892823342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1412190949981982</c:v>
+                  <c:v>0.85591432124864864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1284034356048687</c:v>
+                  <c:v>0.8463025767036515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10595,6 +10538,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size(pixel x pixel)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10603,26 +10571,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -10690,11 +10638,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82106630595874097"/>
+              <c:x val="0.83400500819468126"/>
               <c:y val="0.39341567889368878"/>
             </c:manualLayout>
           </c:layout>
@@ -10706,26 +10679,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10770,6 +10723,32 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
@@ -10786,26 +10765,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -10937,6 +10896,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Static</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Parallel Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37410055769208123"/>
+          <c:y val="1.652209615703849E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10945,26 +10942,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -11080,7 +11057,7 @@
                   <c:v>1.4510081300372843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5421733489072817</c:v>
+                  <c:v>1.4712249936696538</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.4332513351203666</c:v>
@@ -11561,6 +11538,39 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size(pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> x pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11569,26 +11579,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -11656,6 +11646,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11664,26 +11679,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -11728,6 +11723,32 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11736,26 +11757,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -11887,6 +11888,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Parallel Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11895,26 +11926,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -12018,25 +12029,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2540949664547925</c:v>
+                  <c:v>0.94057122484109434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.281887460927341</c:v>
+                  <c:v>0.96141559569550561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2900686044667491</c:v>
+                  <c:v>0.96755145335006187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3047139202070055</c:v>
+                  <c:v>0.97853544015525407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3062370644372274</c:v>
+                  <c:v>0.97967779832792046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2916106641303104</c:v>
+                  <c:v>0.96870799809773289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3085299866563234</c:v>
+                  <c:v>0.98139748999224252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12106,25 +12117,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.1374483761422289</c:v>
+                  <c:v>2.3530862821066716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6916728493199082</c:v>
+                  <c:v>2.7687546369899314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7322830174322004</c:v>
+                  <c:v>2.7992122630741503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8932047361899755</c:v>
+                  <c:v>2.9199035521424812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9105486315462952</c:v>
+                  <c:v>2.932911473659721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8695045341898506</c:v>
+                  <c:v>2.902128400642388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8231997003591704</c:v>
+                  <c:v>2.8673997752693778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12194,25 +12205,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.8802363488182561</c:v>
+                  <c:v>5.1601772616136925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1086029491242932</c:v>
+                  <c:v>6.8314522118432208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8430048732182875</c:v>
+                  <c:v>6.6322536549137165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0649215633654698</c:v>
+                  <c:v>6.7986911725241033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2583164152135833</c:v>
+                  <c:v>6.9437373114101879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.154500249122675</c:v>
+                  <c:v>6.8658751868420058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9221602395694983</c:v>
+                  <c:v>6.6916201796771242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12282,25 +12293,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.610780524056223</c:v>
+                  <c:v>2.7080853930421673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.230550823395799</c:v>
+                  <c:v>7.6729131175468481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.67783271473427</c:v>
+                  <c:v>11.008374536050702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.741345307033605</c:v>
+                  <c:v>12.556008980275204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.479607870468982</c:v>
+                  <c:v>13.109705902851735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.259505519971171</c:v>
+                  <c:v>13.694629139978378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.054454969677899</c:v>
+                  <c:v>13.540841227258424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12511,6 +12522,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size (pixel x pixel)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12519,26 +12555,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -12606,6 +12622,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12614,26 +12655,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -12678,6 +12699,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12686,26 +12732,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -12857,11 +12883,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Efficiency</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Size 500x500 </a:t>
+              <a:t>Efficiency, Size 500x500 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12981,7 +13003,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Extra calculation'!$D$62</c:f>
+              <c:f>'Extra calculation'!$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13030,16 +13052,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62704748322739623</c:v>
+                  <c:v>0.47028561242054717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78436209403555723</c:v>
+                  <c:v>0.5882715705266679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86002954360228201</c:v>
+                  <c:v>0.64502215770171156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22567378275351394</c:v>
+                  <c:v>0.16925533706513546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13091,8 +13113,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
+                  <a:t>tasks</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13336,7 +13359,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Efficiency</a:t>
+              <a:t>Efficiency,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -13461,7 +13484,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Extra calculation'!$D$62</c:f>
+              <c:f>'Extra calculation'!$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13510,16 +13533,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.65426499332816168</c:v>
+                  <c:v>0.49069874499612126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95579992508979261</c:v>
+                  <c:v>0.71684994381734446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1152700299461873</c:v>
+                  <c:v>0.83645252245964052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1284034356048687</c:v>
+                  <c:v>0.8463025767036515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13571,8 +13594,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Cores</a:t>
+                  <a:t>tasks</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13834,26 +13858,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -13957,25 +13961,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.487725E-2</c:v>
+                  <c:v>5.9836333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16982249999999999</c:v>
+                  <c:v>0.22642999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63683900000000004</c:v>
+                  <c:v>0.84911866666666658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6019285000000001</c:v>
+                  <c:v>3.4692379999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.272029249999999</c:v>
+                  <c:v>13.696039000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.045760000000001</c:v>
+                  <c:v>54.727679999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162.077268</c:v>
+                  <c:v>216.103024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14045,25 +14049,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7938249999999999E-2</c:v>
+                  <c:v>2.3917666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.896875E-2</c:v>
+                  <c:v>7.8625E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22012424999999999</c:v>
+                  <c:v>0.29349900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87197374999999999</c:v>
+                  <c:v>1.1626316666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43115675</c:v>
+                  <c:v>4.5748756666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.700756999999999</c:v>
+                  <c:v>18.267676000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.472636000000001</c:v>
+                  <c:v>73.963514666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14133,25 +14137,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.1799999999999998E-3</c:v>
+                  <c:v>1.0906666666666665E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3899750000000001E-2</c:v>
+                  <c:v>3.186633333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2905749999999995E-2</c:v>
+                  <c:v>0.12387433333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37449549999999998</c:v>
+                  <c:v>0.49932733333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.44925975</c:v>
+                  <c:v>1.9323463333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7911562500000002</c:v>
+                  <c:v>7.721541666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.770360499999999</c:v>
+                  <c:v>31.693814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14221,25 +14225,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.558675E-2</c:v>
+                  <c:v>2.0782333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1278749999999999E-2</c:v>
+                  <c:v>2.8371666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5973250000000002E-2</c:v>
+                  <c:v>7.4631000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20277775000000001</c:v>
+                  <c:v>0.27037033333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76762050000000004</c:v>
+                  <c:v>1.0234939999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9034270000000002</c:v>
+                  <c:v>3.8712360000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.7468495</c:v>
+                  <c:v>15.662466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14499,26 +14503,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -14632,26 +14616,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -14716,8 +14680,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processes</a:t>
+                  <a:t>tasks</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -14725,8 +14690,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.78609560507599674"/>
-              <c:y val="0.65278860192994859"/>
+              <c:x val="0.80250025188237217"/>
+              <c:y val="0.66457497257000664"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -14737,26 +14702,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -18440,15 +18385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18475,16 +18420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>814387</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19481,7 +19426,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19516,20 +19461,20 @@
         <v>500</v>
       </c>
       <c r="C3">
-        <f>AVERAGE('Dynamic 1'!C3,'Dynamic 2'!C3,'Dynamic 3'!C3,)</f>
-        <v>44877.25</v>
+        <f>AVERAGE('Dynamic 1'!C3,'Dynamic 2'!C3,'Dynamic 3'!C3)</f>
+        <v>59836.333333333336</v>
       </c>
       <c r="D3">
-        <f>AVERAGE('Dynamic 1'!D3,'Dynamic 2'!D3,'Dynamic 3'!D3,)</f>
-        <v>17938.25</v>
+        <f>AVERAGE('Dynamic 1'!D3,'Dynamic 2'!D3,'Dynamic 3'!D3)</f>
+        <v>23917.666666666668</v>
       </c>
       <c r="E3">
-        <f>AVERAGE('Dynamic 1'!E3,'Dynamic 2'!E3,'Dynamic 3'!E3,)</f>
-        <v>8180</v>
+        <f>AVERAGE('Dynamic 1'!E3,'Dynamic 2'!E3,'Dynamic 3'!E3)</f>
+        <v>10906.666666666666</v>
       </c>
       <c r="F3">
-        <f>AVERAGE('Dynamic 1'!F3,'Dynamic 2'!F3,'Dynamic 3'!F3,)</f>
-        <v>15586.75</v>
+        <f>AVERAGE('Dynamic 1'!F3,'Dynamic 2'!F3,'Dynamic 3'!F3)</f>
+        <v>20782.333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -19537,20 +19482,20 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <f>AVERAGE('Dynamic 1'!C4,'Dynamic 2'!C4,'Dynamic 3'!C4,)</f>
-        <v>169822.5</v>
+        <f>AVERAGE('Dynamic 1'!C4,'Dynamic 2'!C4,'Dynamic 3'!C4)</f>
+        <v>226430</v>
       </c>
       <c r="D4">
-        <f>AVERAGE('Dynamic 1'!D4,'Dynamic 2'!D4,'Dynamic 3'!D4,)</f>
-        <v>58968.75</v>
+        <f>AVERAGE('Dynamic 1'!D4,'Dynamic 2'!D4,'Dynamic 3'!D4)</f>
+        <v>78625</v>
       </c>
       <c r="E4">
-        <f>AVERAGE('Dynamic 1'!E4,'Dynamic 2'!E4,'Dynamic 3'!E4,)</f>
-        <v>23899.75</v>
+        <f>AVERAGE('Dynamic 1'!E4,'Dynamic 2'!E4,'Dynamic 3'!E4)</f>
+        <v>31866.333333333332</v>
       </c>
       <c r="F4">
-        <f>AVERAGE('Dynamic 1'!F4,'Dynamic 2'!F4,'Dynamic 3'!F4,)</f>
-        <v>21278.75</v>
+        <f>AVERAGE('Dynamic 1'!F4,'Dynamic 2'!F4,'Dynamic 3'!F4)</f>
+        <v>28371.666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -19558,20 +19503,20 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <f>AVERAGE('Dynamic 1'!C5,'Dynamic 2'!C5,'Dynamic 3'!C5,)</f>
-        <v>636839</v>
+        <f>AVERAGE('Dynamic 1'!C5,'Dynamic 2'!C5,'Dynamic 3'!C5)</f>
+        <v>849118.66666666663</v>
       </c>
       <c r="D5">
-        <f>AVERAGE('Dynamic 1'!D5,'Dynamic 2'!D5,'Dynamic 3'!D5,)</f>
-        <v>220124.25</v>
+        <f>AVERAGE('Dynamic 1'!D5,'Dynamic 2'!D5,'Dynamic 3'!D5)</f>
+        <v>293499</v>
       </c>
       <c r="E5">
-        <f>AVERAGE('Dynamic 1'!E5,'Dynamic 2'!E5,'Dynamic 3'!E5,)</f>
-        <v>92905.75</v>
+        <f>AVERAGE('Dynamic 1'!E5,'Dynamic 2'!E5,'Dynamic 3'!E5)</f>
+        <v>123874.33333333333</v>
       </c>
       <c r="F5">
-        <f>AVERAGE('Dynamic 1'!F5,'Dynamic 2'!F5,'Dynamic 3'!F5,)</f>
-        <v>55973.25</v>
+        <f>AVERAGE('Dynamic 1'!F5,'Dynamic 2'!F5,'Dynamic 3'!F5)</f>
+        <v>74631</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -19579,20 +19524,20 @@
         <v>4000</v>
       </c>
       <c r="C6">
-        <f>AVERAGE('Dynamic 1'!C6,'Dynamic 2'!C6,'Dynamic 3'!C6,)</f>
-        <v>2601928.5</v>
+        <f>AVERAGE('Dynamic 1'!C6,'Dynamic 2'!C6,'Dynamic 3'!C6)</f>
+        <v>3469238</v>
       </c>
       <c r="D6">
-        <f>AVERAGE('Dynamic 1'!D6,'Dynamic 2'!D6,'Dynamic 3'!D6,)</f>
-        <v>871973.75</v>
+        <f>AVERAGE('Dynamic 1'!D6,'Dynamic 2'!D6,'Dynamic 3'!D6)</f>
+        <v>1162631.6666666667</v>
       </c>
       <c r="E6">
-        <f>AVERAGE('Dynamic 1'!E6,'Dynamic 2'!E6,'Dynamic 3'!E6,)</f>
-        <v>374495.5</v>
+        <f>AVERAGE('Dynamic 1'!E6,'Dynamic 2'!E6,'Dynamic 3'!E6)</f>
+        <v>499327.33333333331</v>
       </c>
       <c r="F6">
-        <f>AVERAGE('Dynamic 1'!F6,'Dynamic 2'!F6,'Dynamic 3'!F6,)</f>
-        <v>202777.75</v>
+        <f>AVERAGE('Dynamic 1'!F6,'Dynamic 2'!F6,'Dynamic 3'!F6)</f>
+        <v>270370.33333333331</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -19600,20 +19545,20 @@
         <v>8000</v>
       </c>
       <c r="C7">
-        <f>AVERAGE('Dynamic 1'!C7,'Dynamic 2'!C7,'Dynamic 3'!C7,)</f>
-        <v>10272029.25</v>
+        <f>AVERAGE('Dynamic 1'!C7,'Dynamic 2'!C7,'Dynamic 3'!C7)</f>
+        <v>13696039</v>
       </c>
       <c r="D7">
-        <f>AVERAGE('Dynamic 1'!D7,'Dynamic 2'!D7,'Dynamic 3'!D7,)</f>
-        <v>3431156.75</v>
+        <f>AVERAGE('Dynamic 1'!D7,'Dynamic 2'!D7,'Dynamic 3'!D7)</f>
+        <v>4574875.666666667</v>
       </c>
       <c r="E7">
-        <f>AVERAGE('Dynamic 1'!E7,'Dynamic 2'!E7,'Dynamic 3'!E7,)</f>
-        <v>1449259.75</v>
+        <f>AVERAGE('Dynamic 1'!E7,'Dynamic 2'!E7,'Dynamic 3'!E7)</f>
+        <v>1932346.3333333333</v>
       </c>
       <c r="F7">
-        <f>AVERAGE('Dynamic 1'!F7,'Dynamic 2'!F7,'Dynamic 3'!F7,)</f>
-        <v>767620.5</v>
+        <f>AVERAGE('Dynamic 1'!F7,'Dynamic 2'!F7,'Dynamic 3'!F7)</f>
+        <v>1023494</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -19621,20 +19566,20 @@
         <v>16000</v>
       </c>
       <c r="C8">
-        <f>AVERAGE('Dynamic 1'!C8,'Dynamic 2'!C8,'Dynamic 3'!C8,)</f>
-        <v>41045760</v>
+        <f>AVERAGE('Dynamic 1'!C8,'Dynamic 2'!C8,'Dynamic 3'!C8)</f>
+        <v>54727680</v>
       </c>
       <c r="D8">
-        <f>AVERAGE('Dynamic 1'!D8,'Dynamic 2'!D8,'Dynamic 3'!D8,)</f>
-        <v>13700757</v>
+        <f>AVERAGE('Dynamic 1'!D8,'Dynamic 2'!D8,'Dynamic 3'!D8)</f>
+        <v>18267676</v>
       </c>
       <c r="E8">
-        <f>AVERAGE('Dynamic 1'!E8,'Dynamic 2'!E8,'Dynamic 3'!E8,)</f>
-        <v>5791156.25</v>
+        <f>AVERAGE('Dynamic 1'!E8,'Dynamic 2'!E8,'Dynamic 3'!E8)</f>
+        <v>7721541.666666667</v>
       </c>
       <c r="F8">
-        <f>AVERAGE('Dynamic 1'!F8,'Dynamic 2'!F8,'Dynamic 3'!F8,)</f>
-        <v>2903427</v>
+        <f>AVERAGE('Dynamic 1'!F8,'Dynamic 2'!F8,'Dynamic 3'!F8)</f>
+        <v>3871236</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -19642,20 +19587,20 @@
         <v>32000</v>
       </c>
       <c r="C9">
-        <f>AVERAGE('Dynamic 1'!C9,'Dynamic 2'!C9,'Dynamic 3'!C9,)</f>
-        <v>162077268</v>
+        <f>AVERAGE('Dynamic 1'!C9,'Dynamic 2'!C9,'Dynamic 3'!C9)</f>
+        <v>216103024</v>
       </c>
       <c r="D9">
-        <f>AVERAGE('Dynamic 1'!D9,'Dynamic 2'!D9,'Dynamic 3'!D9,)</f>
-        <v>55472636</v>
+        <f>AVERAGE('Dynamic 1'!D9,'Dynamic 2'!D9,'Dynamic 3'!D9)</f>
+        <v>73963514.666666672</v>
       </c>
       <c r="E9">
-        <f>AVERAGE('Dynamic 1'!E9,'Dynamic 2'!E9,'Dynamic 3'!E9,)</f>
-        <v>23770360.5</v>
+        <f>AVERAGE('Dynamic 1'!E9,'Dynamic 2'!E9,'Dynamic 3'!E9)</f>
+        <v>31693814</v>
       </c>
       <c r="F9">
-        <f>AVERAGE('Dynamic 1'!F9,'Dynamic 2'!F9,'Dynamic 3'!F9,)</f>
-        <v>11746849.5</v>
+        <f>AVERAGE('Dynamic 1'!F9,'Dynamic 2'!F9,'Dynamic 3'!F9)</f>
+        <v>15662466</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -19689,19 +19634,19 @@
       </c>
       <c r="C14">
         <f>C3/1000000</f>
-        <v>4.487725E-2</v>
+        <v>5.9836333333333339E-2</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:F14" si="0">D3/1000000</f>
-        <v>1.7938249999999999E-2</v>
+        <v>2.3917666666666667E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>8.1799999999999998E-3</v>
+        <v>1.0906666666666665E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1.558675E-2</v>
+        <v>2.0782333333333333E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -19710,19 +19655,19 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:F15" si="1">C4/1000000</f>
-        <v>0.16982249999999999</v>
+        <v>0.22642999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>5.896875E-2</v>
+        <v>7.8625E-2</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>2.3899750000000001E-2</v>
+        <v>3.186633333333333E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2.1278749999999999E-2</v>
+        <v>2.8371666666666667E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -19731,19 +19676,19 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:F16" si="2">C5/1000000</f>
-        <v>0.63683900000000004</v>
+        <v>0.84911866666666658</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>0.22012424999999999</v>
+        <v>0.29349900000000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>9.2905749999999995E-2</v>
+        <v>0.12387433333333332</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>5.5973250000000002E-2</v>
+        <v>7.4631000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -19752,19 +19697,19 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:F17" si="3">C6/1000000</f>
-        <v>2.6019285000000001</v>
+        <v>3.4692379999999998</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>0.87197374999999999</v>
+        <v>1.1626316666666667</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>0.37449549999999998</v>
+        <v>0.49932733333333329</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.20277775000000001</v>
+        <v>0.27037033333333332</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -19773,19 +19718,19 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:F18" si="4">C7/1000000</f>
-        <v>10.272029249999999</v>
+        <v>13.696039000000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>3.43115675</v>
+        <v>4.5748756666666672</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>1.44925975</v>
+        <v>1.9323463333333333</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>0.76762050000000004</v>
+        <v>1.0234939999999999</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -19794,19 +19739,19 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:F19" si="5">C8/1000000</f>
-        <v>41.045760000000001</v>
+        <v>54.727679999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>13.700756999999999</v>
+        <v>18.267676000000002</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>5.7911562500000002</v>
+        <v>7.721541666666667</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>2.9034270000000002</v>
+        <v>3.8712360000000001</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -19815,24 +19760,25 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:F20" si="6">C9/1000000</f>
-        <v>162.077268</v>
+        <v>216.103024</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>55.472636000000001</v>
+        <v>73.963514666666669</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>23.770360499999999</v>
+        <v>31.693814</v>
       </c>
       <c r="F20">
         <f t="shared" si="6"/>
-        <v>11.7468495</v>
+        <v>15.662466</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19840,8 +19786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19862,7 +19808,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19964,8 +19910,8 @@
       <c r="B7">
         <v>8000</v>
       </c>
-      <c r="C7">
-        <v>5206599</v>
+      <c r="C7" s="5">
+        <v>9125113</v>
       </c>
       <c r="D7">
         <v>7766549</v>
@@ -20021,7 +19967,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20123,8 +20069,8 @@
       <c r="B7">
         <v>8000</v>
       </c>
-      <c r="C7">
-        <v>5206937</v>
+      <c r="C7" s="5">
+        <v>9119983</v>
       </c>
       <c r="D7">
         <v>8067149</v>
@@ -20180,7 +20126,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20285,8 +20231,8 @@
       <c r="B7">
         <v>8000</v>
       </c>
-      <c r="C7">
-        <v>5320599</v>
+      <c r="C7" s="5">
+        <v>9115176</v>
       </c>
       <c r="D7">
         <v>7770881</v>
@@ -20342,7 +20288,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20462,7 +20408,7 @@
       </c>
       <c r="C7">
         <f>AVERAGE('Static 1'!C7,'Static 2'!C7,'Static 3'!C7)</f>
-        <v>5244711.666666667</v>
+        <v>9120090.666666666</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Static 1'!D7,'Static 2'!D7,'Static 3'!D7)</f>
@@ -20634,7 +20580,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5.2447116666666673</v>
+        <v>9.1200906666666661</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -20693,16 +20639,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S78"/>
+  <dimension ref="A2:AJ78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:M69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20716,7 +20663,7 @@
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -20724,7 +20671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -20732,7 +20679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -20770,7 +20717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -20801,19 +20748,19 @@
       </c>
       <c r="J5" s="2">
         <f>K17/J$4</f>
-        <v>0.62704748322739623</v>
+        <v>0.47028561242054717</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:M5" si="1">L17/K$4</f>
-        <v>0.78436209403555723</v>
+        <v>0.5882715705266679</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="1"/>
-        <v>0.86002954360228201</v>
+        <v>0.64502215770171156</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>0.22567378275351394</v>
+        <v>0.16925533706513546</v>
       </c>
       <c r="Q5">
         <v>500</v>
@@ -20824,8 +20771,11 @@
       <c r="S5" s="4">
         <v>53961</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1000</v>
       </c>
@@ -20850,19 +20800,19 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ref="J6:M11" si="3">K18/J$4</f>
-        <v>0.64094373046367048</v>
+        <v>0.4807077978477528</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>0.92291821232997706</v>
+        <v>0.69218865924748285</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="3"/>
-        <v>1.1385753686405367</v>
+        <v>0.8539315264804026</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.63940942646223742</v>
+        <v>0.47955706984667801</v>
       </c>
       <c r="Q6">
         <v>1000</v>
@@ -20874,7 +20824,7 @@
         <v>208505</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2000</v>
       </c>
@@ -20899,19 +20849,19 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
-        <v>0.64503430223337455</v>
+        <v>0.48377572667503094</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>0.93307075435805009</v>
+        <v>0.69980306576853757</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="3"/>
-        <v>1.1053756091522859</v>
+        <v>0.82903170686421457</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>0.9173645446708919</v>
+        <v>0.6880234085031689</v>
       </c>
       <c r="Q7">
         <v>2000</v>
@@ -20923,7 +20873,7 @@
         <v>819716</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4000</v>
       </c>
@@ -20948,19 +20898,19 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>0.65235696010350275</v>
+        <v>0.48926772007762703</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>0.97330118404749388</v>
+        <v>0.7299758880356203</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>1.1331151954206837</v>
+        <v>0.84983639656551291</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>1.0463340816896003</v>
+        <v>0.78475056126720022</v>
       </c>
       <c r="Q8">
         <v>4000</v>
@@ -20972,13 +20922,13 @@
         <v>3393345</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8000</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>1.2710866744536409</v>
+        <v>0.73561249683482688</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
@@ -20997,19 +20947,19 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>0.65311853221861371</v>
+        <v>0.48983889916396023</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>0.97763715788657379</v>
+        <v>0.73322786841493026</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
-        <v>1.1572895519016979</v>
+        <v>0.86796716392627349</v>
       </c>
       <c r="M9" s="2">
         <f>N21/M$4</f>
-        <v>1.0924754919043114</v>
+        <v>0.81935661892823342</v>
       </c>
       <c r="Q9">
         <v>8000</v>
@@ -21021,7 +20971,7 @@
         <v>13079591</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>16000</v>
       </c>
@@ -21046,19 +20996,19 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>0.64580533206515522</v>
+        <v>0.48435399904886645</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>0.96737613354746266</v>
+        <v>0.72553210016059699</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="3"/>
-        <v>1.1443125311403344</v>
+        <v>0.85823439835525073</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>1.1412190949981982</v>
+        <v>0.85591432124864864</v>
       </c>
       <c r="Q10">
         <v>16000</v>
@@ -21070,7 +21020,7 @@
         <v>52343808</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>32000</v>
       </c>
@@ -21095,19 +21045,19 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>0.65426499332816168</v>
+        <v>0.49069874499612126</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0.95579992508979261</v>
+        <v>0.71684994381734446</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="3"/>
-        <v>1.1152700299461873</v>
+        <v>0.83645252245964052</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>1.1284034356048687</v>
+        <v>0.8463025767036515</v>
       </c>
       <c r="Q11">
         <v>32000</v>
@@ -21119,7 +21069,7 @@
         <v>209399360</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -21127,7 +21077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -21135,7 +21085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -21198,19 +21148,19 @@
       </c>
       <c r="K17">
         <f>$R5/K30</f>
-        <v>1.2540949664547925</v>
+        <v>0.94057122484109434</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:N17" si="5">$R5/L30</f>
-        <v>3.1374483761422289</v>
+        <v>2.3530862821066716</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>6.8802363488182561</v>
+        <v>5.1601772616136925</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>3.610780524056223</v>
+        <v>2.7080853930421673</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -21238,19 +21188,19 @@
       </c>
       <c r="K18">
         <f t="shared" ref="K18:N23" si="7">$R6/K31</f>
-        <v>1.281887460927341</v>
+        <v>0.96141559569550561</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>3.6916728493199082</v>
+        <v>2.7687546369899314</v>
       </c>
       <c r="M18">
         <f t="shared" si="7"/>
-        <v>9.1086029491242932</v>
+        <v>6.8314522118432208</v>
       </c>
       <c r="N18">
         <f t="shared" si="7"/>
-        <v>10.230550823395799</v>
+        <v>7.6729131175468481</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -21278,19 +21228,19 @@
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>1.2900686044667491</v>
+        <v>0.96755145335006187</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>3.7322830174322004</v>
+        <v>2.7992122630741503</v>
       </c>
       <c r="M19">
         <f t="shared" si="7"/>
-        <v>8.8430048732182875</v>
+        <v>6.6322536549137165</v>
       </c>
       <c r="N19">
         <f t="shared" si="7"/>
-        <v>14.67783271473427</v>
+        <v>11.008374536050702</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -21318,19 +21268,19 @@
       </c>
       <c r="K20">
         <f t="shared" si="7"/>
-        <v>1.3047139202070055</v>
+        <v>0.97853544015525407</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>3.8932047361899755</v>
+        <v>2.9199035521424812</v>
       </c>
       <c r="M20">
         <f t="shared" si="7"/>
-        <v>9.0649215633654698</v>
+        <v>6.7986911725241033</v>
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
-        <v>16.741345307033605</v>
+        <v>12.556008980275204</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -21339,7 +21289,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>2.5421733489072817</v>
+        <v>1.4712249936696538</v>
       </c>
       <c r="D21">
         <f>$R9/D34</f>
@@ -21358,19 +21308,19 @@
       </c>
       <c r="K21">
         <f t="shared" si="7"/>
-        <v>1.3062370644372274</v>
+        <v>0.97967779832792046</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>3.9105486315462952</v>
+        <v>2.932911473659721</v>
       </c>
       <c r="M21">
         <f t="shared" si="7"/>
-        <v>9.2583164152135833</v>
+        <v>6.9437373114101879</v>
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>17.479607870468982</v>
+        <v>13.109705902851735</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -21398,19 +21348,19 @@
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>1.2916106641303104</v>
+        <v>0.96870799809773289</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>3.8695045341898506</v>
+        <v>2.902128400642388</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>9.154500249122675</v>
+        <v>6.8658751868420058</v>
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>18.259505519971171</v>
+        <v>13.694629139978378</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -21438,19 +21388,19 @@
       </c>
       <c r="K23">
         <f t="shared" si="7"/>
-        <v>1.3085299866563234</v>
+        <v>0.98139748999224252</v>
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
-        <v>3.8231997003591704</v>
+        <v>2.8673997752693778</v>
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>8.9221602395694983</v>
+        <v>6.6916201796771242</v>
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>18.054454969677899</v>
+        <v>13.540841227258424</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -21527,16 +21477,16 @@
         <v>500</v>
       </c>
       <c r="K30" s="3">
-        <v>44877.25</v>
+        <v>59836.333333333336</v>
       </c>
       <c r="L30" s="3">
-        <v>17938.25</v>
+        <v>23917.666666666668</v>
       </c>
       <c r="M30" s="3">
-        <v>8180</v>
+        <v>10906.666666666666</v>
       </c>
       <c r="N30" s="3">
-        <v>15586.75</v>
+        <v>20782.333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -21559,16 +21509,16 @@
         <v>1000</v>
       </c>
       <c r="K31" s="3">
-        <v>169822.5</v>
+        <v>226430</v>
       </c>
       <c r="L31" s="3">
-        <v>58968.75</v>
+        <v>78625</v>
       </c>
       <c r="M31" s="3">
-        <v>23899.75</v>
+        <v>31866.333333333332</v>
       </c>
       <c r="N31" s="3">
-        <v>21278.75</v>
+        <v>28371.666666666668</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -21591,16 +21541,16 @@
         <v>2000</v>
       </c>
       <c r="K32" s="3">
-        <v>636839</v>
+        <v>849118.66666666663</v>
       </c>
       <c r="L32" s="3">
-        <v>220124.25</v>
+        <v>293499</v>
       </c>
       <c r="M32" s="3">
-        <v>92905.75</v>
+        <v>123874.33333333333</v>
       </c>
       <c r="N32" s="3">
-        <v>55973.25</v>
+        <v>74631</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -21623,16 +21573,16 @@
         <v>4000</v>
       </c>
       <c r="K33" s="3">
-        <v>2601928.5</v>
+        <v>3469238</v>
       </c>
       <c r="L33" s="3">
-        <v>871973.75</v>
+        <v>1162631.6666666667</v>
       </c>
       <c r="M33" s="3">
-        <v>374495.5</v>
+        <v>499327.33333333331</v>
       </c>
       <c r="N33" s="3">
-        <v>202777.75</v>
+        <v>270370.33333333331</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -21640,7 +21590,7 @@
         <v>8000</v>
       </c>
       <c r="C34" s="3">
-        <v>5278045</v>
+        <v>9120090.666666666</v>
       </c>
       <c r="D34" s="3">
         <v>7868193</v>
@@ -21655,16 +21605,16 @@
         <v>8000</v>
       </c>
       <c r="K34" s="3">
-        <v>10272029.25</v>
+        <v>13696039</v>
       </c>
       <c r="L34" s="3">
-        <v>3431156.75</v>
+        <v>4574875.666666667</v>
       </c>
       <c r="M34" s="3">
-        <v>1449259.75</v>
+        <v>1932346.3333333333</v>
       </c>
       <c r="N34" s="3">
-        <v>767620.5</v>
+        <v>1023494</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -21687,16 +21637,16 @@
         <v>16000</v>
       </c>
       <c r="K35" s="3">
-        <v>41045760</v>
+        <v>54727680</v>
       </c>
       <c r="L35" s="3">
-        <v>13700757</v>
+        <v>18267676</v>
       </c>
       <c r="M35" s="3">
-        <v>5791156.25</v>
+        <v>7721541.666666667</v>
       </c>
       <c r="N35" s="3">
-        <v>2903427</v>
+        <v>3871236</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -21719,23 +21669,23 @@
         <v>32000</v>
       </c>
       <c r="K36" s="3">
-        <v>162077268</v>
+        <v>216103024</v>
       </c>
       <c r="L36" s="3">
-        <v>55472636</v>
+        <v>73963514.666666672</v>
       </c>
       <c r="M36" s="3">
-        <v>23770360.5</v>
+        <v>31693814</v>
       </c>
       <c r="N36" s="3">
-        <v>11746849.5</v>
+        <v>15662466</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
+      <c r="I62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -21830,14 +21780,18 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -21873,31 +21827,31 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
-        <v>0.62704748322739623</v>
+        <v>0.47028561242054717</v>
       </c>
       <c r="D69" s="1">
-        <v>0.78436209403555723</v>
+        <v>0.5882715705266679</v>
       </c>
       <c r="E69" s="1">
-        <v>0.86002954360228201</v>
+        <v>0.64502215770171156</v>
       </c>
       <c r="F69" s="1">
-        <v>0.22567378275351394</v>
+        <v>0.16925533706513546</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <v>0.65426499332816168</v>
+        <v>0.49069874499612126</v>
       </c>
       <c r="K69" s="1">
-        <v>0.95579992508979261</v>
+        <v>0.71684994381734446</v>
       </c>
       <c r="L69" s="1">
-        <v>1.1152700299461873</v>
+        <v>0.83645252245964052</v>
       </c>
       <c r="M69" s="1">
-        <v>1.1284034356048687</v>
+        <v>0.8463025767036515</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
